--- a/downloaded_files/EECS202_Tutorial-35490.xlsx
+++ b/downloaded_files/EECS202_Tutorial-35490.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohamed Hamdy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -789,7 +798,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="54.720625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45921.7521790162</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS202_Tutorial-35490.xlsx
+++ b/downloaded_files/EECS202_Tutorial-35490.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>jana mohamed salama abdelaty essayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220169</x:t>
@@ -488,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1167,7 +1176,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4164559838</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1199,7 +1208,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4173376157</x:v>
+        <x:v>45907.4164559838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1240,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.414990081</x:v>
+        <x:v>45907.4173376157</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1272,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45907.414990081</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1304,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4179172106</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1336,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4155109954</x:v>
+        <x:v>45907.4179172106</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1368,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4170278935</x:v>
+        <x:v>45907.4155109954</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1400,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4170278935</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1432,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1464,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.419212581</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1496,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.419212581</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1528,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1560,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.414625544</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4157157755</x:v>
+        <x:v>45907.414625544</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45907.4157157755</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4144550579</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6664802083</x:v>
+        <x:v>45907.4144550579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4150756597</x:v>
+        <x:v>45907.6664802083</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4204280093</x:v>
+        <x:v>45907.4150756597</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4204280093</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4192667824</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4575805903</x:v>
+        <x:v>45907.4192667824</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45907.4575805903</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4169754977</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2063,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.7521790162</x:v>
+        <x:v>45907.4169754977</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2080,6 +2089,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45921.7521790162</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS202_Tutorial-35490.xlsx
+++ b/downloaded_files/EECS202_Tutorial-35490.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>1230164</x:t>
